--- a/sheets/lista.xlsx
+++ b/sheets/lista.xlsx
@@ -1,22 +1,132 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irgpapais\Documents\Meus Projetos\Val\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irgpapais\Documents\Meus Projetos\val\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0935BD-9CD7-4E96-B500-34A7E9718CB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D7B39E-AD38-4755-BCFD-AF6D47BF1FE5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>2400145264</t>
+  </si>
+  <si>
+    <t>2400145449</t>
+  </si>
+  <si>
+    <t>2400145689</t>
+  </si>
+  <si>
+    <t>2400146088</t>
+  </si>
+  <si>
+    <t>2400168358</t>
+  </si>
+  <si>
+    <t>2400168983</t>
+  </si>
+  <si>
+    <t>2400170045</t>
+  </si>
+  <si>
+    <t>2400170509</t>
+  </si>
+  <si>
+    <t>2400170893</t>
+  </si>
+  <si>
+    <t>2400171163</t>
+  </si>
+  <si>
+    <t>2400175570</t>
+  </si>
+  <si>
+    <t>2400281067</t>
+  </si>
+  <si>
+    <t>2400339711</t>
+  </si>
+  <si>
+    <t>2400341804</t>
+  </si>
+  <si>
+    <t>2400342698</t>
+  </si>
+  <si>
+    <t>2400343250</t>
+  </si>
+  <si>
+    <t>2400343795</t>
+  </si>
+  <si>
+    <t>2400345605</t>
+  </si>
+  <si>
+    <t>2400345937</t>
+  </si>
+  <si>
+    <t>2400346545</t>
+  </si>
+  <si>
+    <t>2400347062</t>
+  </si>
+  <si>
+    <t>2400351830</t>
+  </si>
+  <si>
+    <t>2400352695</t>
+  </si>
+  <si>
+    <t>2400356084</t>
+  </si>
+  <si>
+    <t>2400356624</t>
+  </si>
+  <si>
+    <t>2400357056</t>
+  </si>
+  <si>
+    <t>2400357642</t>
+  </si>
+  <si>
+    <t>2400358962</t>
+  </si>
+  <si>
+    <t>2400359383</t>
+  </si>
+  <si>
+    <t>2400361000</t>
+  </si>
+  <si>
+    <t>2400404661</t>
+  </si>
+  <si>
+    <t>2400563637</t>
+  </si>
+  <si>
+    <t>2401007370</t>
+  </si>
+  <si>
+    <t>2401079946</t>
+  </si>
+  <si>
+    <t>2401482521</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -332,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -344,73 +454,208 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>2323840130</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2323885551</v>
+      <c r="A2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2326802153</v>
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2327367733</v>
+      <c r="A4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2332690922</v>
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2332691650</v>
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2332692228</v>
+      <c r="A7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2335388752</v>
+      <c r="A8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2337568014</v>
+      <c r="A9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2338165623</v>
+      <c r="A10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2338247597</v>
+      <c r="A11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2338358732</v>
+      <c r="A12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2339012988</v>
+      <c r="A13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2339459465</v>
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2342051650</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2342128708</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2342181905</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2342306261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2342317298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2342324241</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/lista.xlsx
+++ b/sheets/lista.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irgpapais\Documents\Meus Projetos\val\sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79F4428-4334-47E8-A674-B07068079076}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F2ADC8-A36D-4D21-8DFB-6E0F8B66CE31}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,19 +21,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -44,14 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -68,14 +55,25 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -376,223 +374,296 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A41"/>
+  <dimension ref="A1:A55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>2400145264</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2400145449</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2400145689</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2400146088</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
         <v>2400168358</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>2400168983</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>2400170045</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>2400170509</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>2400170893</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>2400171163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>2400175570</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>2400281067</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>2400339711</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2400341804</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2400342698</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>2400343250</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>2400343795</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>2400345605</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2400345937</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>2400346545</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>2400347062</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>2400351830</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>2400352695</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>2400356084</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>2400356624</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>2400357056</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>2400357642</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>2400358962</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>2400359383</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>2400361000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>2400404661</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>2400563637</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>2401007370</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2400793596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2400956604</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>2401079946</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>2401482521</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2401083851</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2401124747</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2401812660</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2401833433</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>2401854192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>2401861493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>2401861706</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>2401861882</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>2401862014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>2401862156</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>2401862715</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>2401862853</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>2401868202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>2401872797</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>2401991595</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>2402025615</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>2402109571</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>2402111682</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>2402112982</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>2402121457</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>2402126528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>2402128596</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>2342051650</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2402131179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>2342128708</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2402133283</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>2342181905</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2402213351</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>2342306261</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2402276893</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>2342317298</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2402374309</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>2342324241</v>
+        <v>2402396903</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>2402467305</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>2402469017</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>2402715300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>2402715641</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>2402716251</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>2402720327</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>2402720845</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>2402723842</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>2402724282</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>2402873735</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>2402937986</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>2402938459</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>2402940185</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>2402940938</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A55">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/sheets/lista.xlsx
+++ b/sheets/lista.xlsx
@@ -20,13 +20,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +43,14 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -51,11 +64,11 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">

--- a/sheets/lista.xlsx
+++ b/sheets/lista.xlsx
@@ -1,38 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20410"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irgpapais\Documents\Meus Projetos\val\sheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F5BFA6-2146-467B-BBE5-2AE2CD4CA022}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Plan1"/>
+    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -43,14 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -63,22 +51,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -89,10 +78,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -130,71 +119,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -222,7 +211,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -245,11 +234,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -258,13 +247,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -274,7 +263,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -283,7 +272,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -292,7 +281,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -300,10 +289,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -368,21 +357,535 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A103"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="11.005" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>2414211566</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>2414957818</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2413864017</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2413962062</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2412671228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2415355171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>2415068702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>2413591719</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2412710653</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2412476651</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>2414368399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>2413584837</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>2414855545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>2415602501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2413732522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>2413075536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>2415531352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>2415531778</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>2415532753</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>2415532873</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>2415533842</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>2415533879</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>2415535031</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>2415535288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>2415536581</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>2415536600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>2415537949</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>2415540131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>2415540488</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>2415382084</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>2413246463</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>2413734668</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>2414339845</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>2414706406</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>2415633340</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>2413683444</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>2414609040</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>2412591409</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>2415352657</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>2413536381</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>2414599468</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>2414516947</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>2412652238</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>2413864520</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>2415539022</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>2415539055</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>2415539083</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>2412601893</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>2413461011</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>2415538469</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>2412568985</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>2413745047</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>2414154356</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>2415624356</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>2414323745</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>2415399267</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>2413710969</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>2412620982</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>2413270759</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>2414256075</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>2413563814</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>2415101423</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>2413485330</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>2414976287</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>2415026268</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>2412767245</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>2413789056</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>2412702362</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>2414976040</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>2414720200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>2414526409</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>2414470882</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>2414547530</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>2415435473</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>2415130078</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>2415123279</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>2412574801</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>2412841646</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>2412942713</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>2412835940</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>2414704746</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>2412824022</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>2412126889</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>2413079892</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>2413083656</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>2413085003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>2412813962</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>2414375255</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>2414062399</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>2414554613</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>2414662500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>2413103796</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>2411864834</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>2413045368</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>2413566283</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>2412818780</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>2412826963</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>2413186770</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>2413684082</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>2414245085</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>2414496491</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>2413395621</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>2412315680</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
